--- a/Matching Diagram/Cruise Speed line.xlsx
+++ b/Matching Diagram/Cruise Speed line.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321DF3C-80B1-420F-8033-A52A4053B985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium" sheetId="1" r:id="rId1"/>
     <sheet name="Low" sheetId="2" r:id="rId2"/>
     <sheet name="High" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,12 +68,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -81,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -89,7 +90,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -97,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -105,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -114,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -272,7 +273,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -298,7 +298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -441,94 +441,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.19974070727068258</c:v>
+                  <c:v>0.26360488531309179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10073302522295183</c:v>
+                  <c:v>0.13266511424415642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8113874134868496E-2</c:v>
+                  <c:v>8.9401933482338228E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2091855786697012E-2</c:v>
+                  <c:v>6.8057900297299315E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2708690534490265E-2</c:v>
+                  <c:v>5.5481526142972117E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6644951830265886E-2</c:v>
+                  <c:v>4.7288981504000752E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2478028296317157E-2</c:v>
+                  <c:v>4.1601482302375613E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9496614243790697E-2</c:v>
+                  <c:v>3.7479636499091848E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7305539845545752E-2</c:v>
+                  <c:v>3.4401559628035663E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5667703205297872E-2</c:v>
+                  <c:v>3.2054121009538791E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4432221298138764E-2</c:v>
+                  <c:v>3.0238055665630505E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3498505440796229E-2</c:v>
+                  <c:v>2.8820520277663662E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2796917314081837E-2</c:v>
+                  <c:v>2.7709546394267159E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.227771526143241E-2</c:v>
+                  <c:v>2.6839442264461638E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1904422068034956E-2</c:v>
+                  <c:v>2.6162033937528899E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1649679822779728E-2</c:v>
+                  <c:v>2.5641190950430302E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1492567770112218E-2</c:v>
+                  <c:v>2.5249284125548048E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1416814211267805E-2</c:v>
+                  <c:v>2.4964824102512755E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1409573068274422E-2</c:v>
+                  <c:v>2.4770845596822272E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1460567478754411E-2</c:v>
+                  <c:v>2.4653776380874869E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1561478077925866E-2</c:v>
+                  <c:v>2.4602629413278686E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1705498112785406E-2</c:v>
+                  <c:v>2.4608415296531277E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1887004613460666E-2</c:v>
+                  <c:v>2.4663708006608893E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2101311771724683E-2</c:v>
+                  <c:v>2.4762319190158401E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2344483508666815E-2</c:v>
+                  <c:v>2.4899050630363181E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2613189295978036E-2</c:v>
+                  <c:v>2.5069503836070699E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2904592016950678E-2</c:v>
+                  <c:v>2.5269931944447314E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3216259857263874E-2</c:v>
+                  <c:v>2.5497123358778486E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3546096425261693E-2</c:v>
+                  <c:v>2.5748309461206841E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3892284848175689E-2</c:v>
+                  <c:v>2.6021090782922664E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,7 +606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640747376"/>
@@ -682,7 +682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640751968"/>
@@ -723,7 +723,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -777,7 +777,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -803,7 +802,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -946,94 +945,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.21762362435295637</c:v>
+                  <c:v>0.28801924217479297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10959032193309533</c:v>
+                  <c:v>0.14478813084401362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3925225462749253E-2</c:v>
+                  <c:v>9.7390431403361441E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6352180479781896E-2</c:v>
+                  <c:v>7.3951084935241052E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6015956091766078E-2</c:v>
+                  <c:v>6.00950796561334E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9298142001225986E-2</c:v>
+                  <c:v>5.1030744971532094E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4647990937814906E-2</c:v>
+                  <c:v>4.4704507769505845E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1290129266359441E-2</c:v>
+                  <c:v>4.0089581494089012E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8793793856207731E-2</c:v>
+                  <c:v>3.6615529169745129E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6900526828968648E-2</c:v>
+                  <c:v>3.394008861115231E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.544585498930238E-2</c:v>
+                  <c:v>3.1845456609469344E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4320129540315726E-2</c:v>
+                  <c:v>3.018643102546878E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3447439776467238E-2</c:v>
+                  <c:v>2.8862487301223899E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2773563765227305E-2</c:v>
+                  <c:v>2.7801822181072779E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2258738756074221E-2</c:v>
+                  <c:v>2.6951779944196657E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1873142686116696E-2</c:v>
+                  <c:v>2.6272868799981485E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1593970448437871E-2</c:v>
+                  <c:v>2.5734889143840024E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1403484737657963E-2</c:v>
+                  <c:v>2.5314352394426663E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1287682417950829E-2</c:v>
+                  <c:v>2.4992714934889596E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1235360980655545E-2</c:v>
+                  <c:v>2.4755141871747377E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1237451728284708E-2</c:v>
+                  <c:v>2.458962400551502E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1286534817439532E-2</c:v>
+                  <c:v>2.4486335627523011E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1376480812268846E-2</c:v>
+                  <c:v>2.4437159848000871E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1502181849563328E-2</c:v>
+                  <c:v>2.4435332592139852E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1659347324227165E-2</c:v>
+                  <c:v>2.4475172037100631E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1844346724256204E-2</c:v>
+                  <c:v>2.4551870486634535E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2054087391276532E-2</c:v>
+                  <c:v>2.4661332495789001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2285918475253363E-2</c:v>
+                  <c:v>2.4800047683176098E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2537554760639473E-2</c:v>
+                  <c:v>2.4964989857944184E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.280701572729394E-2</c:v>
+                  <c:v>2.5153536321355162E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540720312"/>
@@ -1187,7 +1186,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540719984"/>
@@ -1228,7 +1227,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1284,7 +1283,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1310,7 +1308,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1453,94 +1451,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.19977326091549807</c:v>
+                  <c:v>0.26360488531309179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10079813251258282</c:v>
+                  <c:v>0.13266511424415642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8211535069314974E-2</c:v>
+                  <c:v>8.9401933482338228E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2222070365958981E-2</c:v>
+                  <c:v>6.8057900297299315E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2871458758567731E-2</c:v>
+                  <c:v>5.5481526142972117E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6840273699158842E-2</c:v>
+                  <c:v>4.7288981504000752E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2705903810025604E-2</c:v>
+                  <c:v>4.1601482302375613E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9757043402314633E-2</c:v>
+                  <c:v>3.7479636499091848E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7598522648885185E-2</c:v>
+                  <c:v>3.4401559628035663E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5993239653452797E-2</c:v>
+                  <c:v>3.2054121009538791E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4790311391109179E-2</c:v>
+                  <c:v>3.0238055665630505E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3889149178582141E-2</c:v>
+                  <c:v>2.8820520277663662E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3220114696683242E-2</c:v>
+                  <c:v>2.7709546394267159E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2733466288849306E-2</c:v>
+                  <c:v>2.6839442264461638E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2392726740267339E-2</c:v>
+                  <c:v>2.6162033937528899E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2170538139827604E-2</c:v>
+                  <c:v>2.5641190950430302E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2045979731975588E-2</c:v>
+                  <c:v>2.5249284125548048E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2002779817946669E-2</c:v>
+                  <c:v>2.4964824102512755E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2028092319768777E-2</c:v>
+                  <c:v>2.4770845596822272E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2111640375064259E-2</c:v>
+                  <c:v>2.4653776380874869E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2245104619051208E-2</c:v>
+                  <c:v>2.4602629413278686E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2421678298726239E-2</c:v>
+                  <c:v>2.4608415296531277E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2635738444216989E-2</c:v>
+                  <c:v>2.4663708006608893E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2882599247296503E-2</c:v>
+                  <c:v>2.4762319190158401E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3158324629054126E-2</c:v>
+                  <c:v>2.4899050630363181E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.3459584061180837E-2</c:v>
+                  <c:v>2.5069503836070699E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3783540426968973E-2</c:v>
+                  <c:v>2.5269931944447314E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4127761912097659E-2</c:v>
+                  <c:v>2.5497123358778486E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4490152124910975E-2</c:v>
+                  <c:v>2.5748309461206841E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4868894192640465E-2</c:v>
+                  <c:v>2.6021090782922664E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,7 +1616,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523088608"/>
@@ -1680,7 +1678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523081392"/>
@@ -1721,7 +1719,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1777,7 +1775,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1803,7 +1800,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1946,94 +1943,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.21765300207962118</c:v>
+                  <c:v>0.28801924217479297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10964907738642492</c:v>
+                  <c:v>0.14478813084401362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4013358642743637E-2</c:v>
+                  <c:v>9.7390431403361441E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6469691386441097E-2</c:v>
+                  <c:v>7.3951084935241052E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6162844725090066E-2</c:v>
+                  <c:v>6.00950796561334E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9474408361214776E-2</c:v>
+                  <c:v>5.1030744971532094E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4853635024468484E-2</c:v>
+                  <c:v>4.4704507769505845E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1525151079677814E-2</c:v>
+                  <c:v>4.0089581494089012E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9058193396190906E-2</c:v>
+                  <c:v>3.6615529169745129E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7194304095616621E-2</c:v>
+                  <c:v>3.394008861115231E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5769009982615151E-2</c:v>
+                  <c:v>3.1845456609469344E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4672662260293292E-2</c:v>
+                  <c:v>3.018643102546878E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3829350223109599E-2</c:v>
+                  <c:v>2.8862487301223899E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3184851938534465E-2</c:v>
+                  <c:v>2.7801822181072779E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2699404656046175E-2</c:v>
+                  <c:v>2.6951779944196657E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2343186312753449E-2</c:v>
+                  <c:v>2.6272868799981485E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2093391801739422E-2</c:v>
+                  <c:v>2.5734889143840024E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1932283817624312E-2</c:v>
+                  <c:v>2.5314352394426663E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.184585922458197E-2</c:v>
+                  <c:v>2.4992714934889596E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1822915513951484E-2</c:v>
+                  <c:v>2.4755141871747377E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1854383988245449E-2</c:v>
+                  <c:v>2.458962400551502E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1932844804065068E-2</c:v>
+                  <c:v>2.4486335627523011E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2052168525559173E-2</c:v>
+                  <c:v>2.4437159848000871E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2207247289518457E-2</c:v>
+                  <c:v>2.4435332592139852E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2393790490847092E-2</c:v>
+                  <c:v>2.4475172037100631E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.260816761754093E-2</c:v>
+                  <c:v>2.4551870486634535E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2847286011226053E-2</c:v>
+                  <c:v>2.4661332495789001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3108494821867675E-2</c:v>
+                  <c:v>2.4800047683176098E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.338950883391859E-2</c:v>
+                  <c:v>2.4964989857944184E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3688347527237853E-2</c:v>
+                  <c:v>2.5153536321355162E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="616388416"/>
@@ -2173,7 +2170,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="616386120"/>
@@ -2214,7 +2211,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2270,7 +2267,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2296,7 +2292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2439,94 +2435,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.19971146416601782</c:v>
+                  <c:v>0.26360488531309179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10067453901362231</c:v>
+                  <c:v>0.13266511424415642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8026144820874213E-2</c:v>
+                  <c:v>8.9401933482338228E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1974883368037961E-2</c:v>
+                  <c:v>6.8057900297299315E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2562475011166452E-2</c:v>
+                  <c:v>5.5481526142972117E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6469493202277305E-2</c:v>
+                  <c:v>4.7288981504000752E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2273326563663808E-2</c:v>
+                  <c:v>4.1601482302375613E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9262669406472583E-2</c:v>
+                  <c:v>3.7479636499091848E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7042351903562876E-2</c:v>
+                  <c:v>3.4401559628035663E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5375272158650229E-2</c:v>
+                  <c:v>3.2054121009538791E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4110547146826353E-2</c:v>
+                  <c:v>3.0238055665630505E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.314758818481906E-2</c:v>
+                  <c:v>2.8820520277663662E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2416756953439903E-2</c:v>
+                  <c:v>2.7709546394267159E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1868311796125712E-2</c:v>
+                  <c:v>2.6839442264461638E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1465775498063493E-2</c:v>
+                  <c:v>2.6162033937528899E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.11817901481435E-2</c:v>
+                  <c:v>2.5641190950430302E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0995434990811222E-2</c:v>
+                  <c:v>2.5249284125548048E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0890438327302047E-2</c:v>
+                  <c:v>2.4964824102512755E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.08539540796439E-2</c:v>
+                  <c:v>2.4770845596822272E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0875705385459124E-2</c:v>
+                  <c:v>2.4653776380874869E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0947372879965814E-2</c:v>
+                  <c:v>2.4602629413278686E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1062149810160587E-2</c:v>
+                  <c:v>2.4608415296531277E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1214413206171085E-2</c:v>
+                  <c:v>2.4663708006608893E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1399477259770341E-2</c:v>
+                  <c:v>2.4762319190158401E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1613405892047705E-2</c:v>
+                  <c:v>2.4899050630363181E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1852868574694165E-2</c:v>
+                  <c:v>2.5069503836070699E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2115028191002042E-2</c:v>
+                  <c:v>2.5269931944447314E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.239745292665047E-2</c:v>
+                  <c:v>2.5497123358778486E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2698046389983535E-2</c:v>
+                  <c:v>2.5748309461206841E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3014991708232759E-2</c:v>
+                  <c:v>2.6021090782922664E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,7 +2600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627630560"/>
@@ -2666,7 +2662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627628592"/>
@@ -2707,7 +2703,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2763,7 +2759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2789,7 +2784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2932,94 +2927,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.21759723419171514</c:v>
+                  <c:v>0.28801924217479297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1095375416106128</c:v>
+                  <c:v>0.14478813084401362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.384605497902548E-2</c:v>
+                  <c:v>9.7390431403361441E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6246619834816873E-2</c:v>
+                  <c:v>7.3951084935241052E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.588400528555979E-2</c:v>
+                  <c:v>6.00950796561334E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.913980103377844E-2</c:v>
+                  <c:v>5.1030744971532094E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4463259809126096E-2</c:v>
+                  <c:v>4.4704507769505845E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.107900797642937E-2</c:v>
+                  <c:v>4.0089581494089012E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8556282405036409E-2</c:v>
+                  <c:v>3.6615529169745129E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6636625216556065E-2</c:v>
+                  <c:v>3.394008861115231E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.515556321564854E-2</c:v>
+                  <c:v>3.1845456609469344E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4003447605420627E-2</c:v>
+                  <c:v>3.018643102546878E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3104367680330879E-2</c:v>
+                  <c:v>2.8862487301223899E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2404101507849689E-2</c:v>
+                  <c:v>2.7801822181072779E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1862886337455343E-2</c:v>
+                  <c:v>2.6951779944196657E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1450900106256564E-2</c:v>
+                  <c:v>2.6272868799981485E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1145337707336478E-2</c:v>
+                  <c:v>2.5734889143840024E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0928461835315316E-2</c:v>
+                  <c:v>2.5314352394426663E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0786269354366917E-2</c:v>
+                  <c:v>2.4992714934889596E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0707557755830379E-2</c:v>
+                  <c:v>2.4755141871747377E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0683258342218284E-2</c:v>
+                  <c:v>2.458962400551502E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0705951270131851E-2</c:v>
+                  <c:v>2.4486335627523011E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.07695071037199E-2</c:v>
+                  <c:v>2.4437159848000871E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0868817979773125E-2</c:v>
+                  <c:v>2.4435332592139852E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0999593293195708E-2</c:v>
+                  <c:v>2.4475172037100631E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1158202531983489E-2</c:v>
+                  <c:v>2.4551870486634535E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1341553037762556E-2</c:v>
+                  <c:v>2.4661332495789001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1546993960498126E-2</c:v>
+                  <c:v>2.4800047683176098E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1772240084642982E-2</c:v>
+                  <c:v>2.4964989857944184E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2015310890056188E-2</c:v>
+                  <c:v>2.5153536321355162E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,7 +3092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="609791456"/>
@@ -3159,7 +3154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="609787192"/>
@@ -3200,7 +3195,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6564,7 +6559,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6594,7 +6595,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6629,7 +6636,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6659,7 +6672,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6694,7 +6713,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6724,7 +6749,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7004,16 +7035,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7027,20 +7058,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>($G$6*(0.5*$G$8*($G$10*$H$10)^2)*($G$4/(A2))+((A2)/((0.5*$G$8*($G$10*$H$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.19974070727068258</v>
+        <v>0.26360488531309179</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" s="4">
         <f>($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D2))+(D2)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.21762362435295637</v>
+        <v>0.28801924217479297</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -7051,20 +7082,20 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B31" si="0">($G$6*(0.5*$G$8*($G$10*$H$10)^2)*($G$4/(A3))+((A3)/((0.5*$G$8*($G$10*$H$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.10073302522295183</v>
+        <v>0.13266511424415642</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="4">
         <f>($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D3))+(D3)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.10959032193309533</v>
+        <v>0.14478813084401362</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -7079,20 +7110,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>15</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8113874134868496E-2</v>
+        <v>8.9401933482338228E-2</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E31" si="1">($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D4))+(D4)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>7.3925225462749253E-2</v>
+        <v>9.7390431403361441E-2</v>
       </c>
       <c r="G4" s="2">
         <v>0.81950000000000001</v>
@@ -7107,20 +7138,20 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>5.2091855786697012E-2</v>
+        <v>6.8057900297299315E-2</v>
       </c>
       <c r="D5" s="3">
         <v>20</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>5.6352180479781896E-2</v>
+        <v>7.3951084935241052E-2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -7135,48 +7166,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>4.2708690534490265E-2</v>
+        <v>5.5481526142972117E-2</v>
       </c>
       <c r="D6" s="3">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>4.6015956091766078E-2</v>
+        <v>6.00950796561334E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>1.231961E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="H6" s="2">
         <v>9.5</v>
       </c>
       <c r="J6" s="2">
-        <v>1.3428004E-2</v>
+        <v>1.7781999999999999E-2</v>
       </c>
       <c r="K6" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>30</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3.6644951830265886E-2</v>
+        <v>4.7288981504000752E-2</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>3.9298142001225986E-2</v>
+        <v>5.1030744971532094E-2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -7191,20 +7222,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3.2478028296317157E-2</v>
+        <v>4.1601482302375613E-2</v>
       </c>
       <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>3.4647990937814906E-2</v>
+        <v>4.4704507769505845E-2</v>
       </c>
       <c r="G8" s="2">
         <v>8.25E-4</v>
@@ -7219,20 +7250,20 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>40</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>2.9496614243790697E-2</v>
+        <v>3.7479636499091848E-2</v>
       </c>
       <c r="D9" s="3">
         <v>40</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.1290129266359441E-2</v>
+        <v>4.0089581494089012E-2</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -7247,20 +7278,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>2.7305539845545752E-2</v>
+        <v>3.4401559628035663E-2</v>
       </c>
       <c r="D10" s="3">
         <v>45</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>2.8793793856207731E-2</v>
+        <v>3.6615529169745129E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.79</v>
@@ -7275,340 +7306,340 @@
         <v>986</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>2.5667703205297872E-2</v>
+        <v>3.2054121009538791E-2</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>2.6900526828968648E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.394008861115231E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>55</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>2.4432221298138764E-2</v>
+        <v>3.0238055665630505E-2</v>
       </c>
       <c r="D12" s="3">
         <v>55</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>2.544585498930238E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1845456609469344E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>2.3498505440796229E-2</v>
+        <v>2.8820520277663662E-2</v>
       </c>
       <c r="D13" s="3">
         <v>60</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>2.4320129540315726E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.018643102546878E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>65</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>2.2796917314081837E-2</v>
+        <v>2.7709546394267159E-2</v>
       </c>
       <c r="D14" s="3">
         <v>65</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>2.3447439776467238E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8862487301223899E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>70</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>2.227771526143241E-2</v>
+        <v>2.6839442264461638E-2</v>
       </c>
       <c r="D15" s="3">
         <v>70</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>2.2773563765227305E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7801822181072779E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>75</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>2.1904422068034956E-2</v>
+        <v>2.6162033937528899E-2</v>
       </c>
       <c r="D16" s="3">
         <v>75</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>2.2258738756074221E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6951779944196657E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>80</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>2.1649679822779728E-2</v>
+        <v>2.5641190950430302E-2</v>
       </c>
       <c r="D17" s="3">
         <v>80</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>2.1873142686116696E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6272868799981485E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>85</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>2.1492567770112218E-2</v>
+        <v>2.5249284125548048E-2</v>
       </c>
       <c r="D18" s="3">
         <v>85</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>2.1593970448437871E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5734889143840024E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>2.1416814211267805E-2</v>
+        <v>2.4964824102512755E-2</v>
       </c>
       <c r="D19" s="3">
         <v>90</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>2.1403484737657963E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5314352394426663E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>95</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>2.1409573068274422E-2</v>
+        <v>2.4770845596822272E-2</v>
       </c>
       <c r="D20" s="3">
         <v>95</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>2.1287682417950829E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4992714934889596E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>100</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>2.1460567478754411E-2</v>
+        <v>2.4653776380874869E-2</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>2.1235360980655545E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4755141871747377E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>105</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>2.1561478077925866E-2</v>
+        <v>2.4602629413278686E-2</v>
       </c>
       <c r="D22" s="3">
         <v>105</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>2.1237451728284708E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.458962400551502E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>110</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>2.1705498112785406E-2</v>
+        <v>2.4608415296531277E-2</v>
       </c>
       <c r="D23" s="3">
         <v>110</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>2.1286534817439532E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4486335627523011E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>115</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>2.1887004613460666E-2</v>
+        <v>2.4663708006608893E-2</v>
       </c>
       <c r="D24" s="3">
         <v>115</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>2.1376480812268846E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4437159848000871E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>120</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>2.2101311771724683E-2</v>
+        <v>2.4762319190158401E-2</v>
       </c>
       <c r="D25" s="3">
         <v>120</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>2.1502181849563328E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4435332592139852E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>125</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>2.2344483508666815E-2</v>
+        <v>2.4899050630363181E-2</v>
       </c>
       <c r="D26" s="3">
         <v>125</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>2.1659347324227165E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4475172037100631E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>130</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>2.2613189295978036E-2</v>
+        <v>2.5069503836070699E-2</v>
       </c>
       <c r="D27" s="3">
         <v>130</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>2.1844346724256204E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4551870486634535E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>135</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>2.2904592016950678E-2</v>
+        <v>2.5269931944447314E-2</v>
       </c>
       <c r="D28" s="3">
         <v>135</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>2.2054087391276532E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4661332495789001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>140</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>2.3216259857263874E-2</v>
+        <v>2.5497123358778486E-2</v>
       </c>
       <c r="D29" s="3">
         <v>140</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>2.2285918475253363E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4800047683176098E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>145</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>2.3546096425261693E-2</v>
+        <v>2.5748309461206841E-2</v>
       </c>
       <c r="D30" s="3">
         <v>145</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>2.2537554760639473E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4964989857944184E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>150</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>2.3892284848175689E-2</v>
+        <v>2.6021090782922664E-2</v>
       </c>
       <c r="D31" s="3">
         <v>150</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>2.280701572729394E-2</v>
+        <v>2.5153536321355162E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7622,16 +7653,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G2" sqref="G2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7645,20 +7676,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>($G$6*(0.5*$G$8*($G$10*$H$10)^2)*($G$4/(A2))+((A2)/((0.5*$G$8*($G$10*$H$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.19977326091549807</v>
+        <v>0.26360488531309179</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" s="4">
         <f>($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D2))+(D2)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.21765300207962118</v>
+        <v>0.28801924217479297</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -7669,20 +7700,20 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B31" si="0">($G$6*(0.5*$G$8*($G$10*$H$10)^2)*($G$4/(A3))+((A3)/((0.5*$G$8*($G$10*$H$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.10079813251258282</v>
+        <v>0.13266511424415642</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="4">
         <f>($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D3))+(D3)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.10964907738642492</v>
+        <v>0.14478813084401362</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -7697,20 +7728,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>15</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8211535069314974E-2</v>
+        <v>8.9401933482338228E-2</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E31" si="1">($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D4))+(D4)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>7.4013358642743637E-2</v>
+        <v>9.7390431403361441E-2</v>
       </c>
       <c r="G4" s="2">
         <v>0.81950000000000001</v>
@@ -7725,20 +7756,20 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>5.2222070365958981E-2</v>
+        <v>6.8057900297299315E-2</v>
       </c>
       <c r="D5" s="3">
         <v>20</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>5.6469691386441097E-2</v>
+        <v>7.3951084935241052E-2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -7753,48 +7784,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>4.2871458758567731E-2</v>
+        <v>5.5481526142972117E-2</v>
       </c>
       <c r="D6" s="3">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>4.6162844725090066E-2</v>
+        <v>6.00950796561334E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>1.231961E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="H6" s="2">
         <v>9.5</v>
       </c>
       <c r="J6" s="2">
-        <v>1.3428004E-2</v>
+        <v>1.7781999999999999E-2</v>
       </c>
       <c r="K6" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>30</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3.6840273699158842E-2</v>
+        <v>4.7288981504000752E-2</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>3.9474408361214776E-2</v>
+        <v>5.1030744971532094E-2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -7809,48 +7840,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3.2705903810025604E-2</v>
+        <v>4.1601482302375613E-2</v>
       </c>
       <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>3.4853635024468484E-2</v>
+        <v>4.4704507769505845E-2</v>
       </c>
       <c r="G8" s="2">
         <v>8.25E-4</v>
       </c>
       <c r="H8" s="2">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J8" s="2">
         <v>8.25E-4</v>
       </c>
       <c r="K8" s="2">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>40</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>2.9757043402314633E-2</v>
+        <v>3.7479636499091848E-2</v>
       </c>
       <c r="D9" s="3">
         <v>40</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.1525151079677814E-2</v>
+        <v>4.0089581494089012E-2</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -7865,20 +7896,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>2.7598522648885185E-2</v>
+        <v>3.4401559628035663E-2</v>
       </c>
       <c r="D10" s="3">
         <v>45</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>2.9058193396190906E-2</v>
+        <v>3.6615529169745129E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.79</v>
@@ -7893,340 +7924,340 @@
         <v>986</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>2.5993239653452797E-2</v>
+        <v>3.2054121009538791E-2</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>2.7194304095616621E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.394008861115231E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>55</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>2.4790311391109179E-2</v>
+        <v>3.0238055665630505E-2</v>
       </c>
       <c r="D12" s="3">
         <v>55</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>2.5769009982615151E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1845456609469344E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>2.3889149178582141E-2</v>
+        <v>2.8820520277663662E-2</v>
       </c>
       <c r="D13" s="3">
         <v>60</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>2.4672662260293292E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.018643102546878E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>65</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>2.3220114696683242E-2</v>
+        <v>2.7709546394267159E-2</v>
       </c>
       <c r="D14" s="3">
         <v>65</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>2.3829350223109599E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8862487301223899E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>70</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>2.2733466288849306E-2</v>
+        <v>2.6839442264461638E-2</v>
       </c>
       <c r="D15" s="3">
         <v>70</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>2.3184851938534465E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7801822181072779E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>75</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>2.2392726740267339E-2</v>
+        <v>2.6162033937528899E-2</v>
       </c>
       <c r="D16" s="3">
         <v>75</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>2.2699404656046175E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6951779944196657E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>80</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>2.2170538139827604E-2</v>
+        <v>2.5641190950430302E-2</v>
       </c>
       <c r="D17" s="3">
         <v>80</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>2.2343186312753449E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6272868799981485E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>85</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>2.2045979731975588E-2</v>
+        <v>2.5249284125548048E-2</v>
       </c>
       <c r="D18" s="3">
         <v>85</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>2.2093391801739422E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5734889143840024E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>2.2002779817946669E-2</v>
+        <v>2.4964824102512755E-2</v>
       </c>
       <c r="D19" s="3">
         <v>90</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>2.1932283817624312E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5314352394426663E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>95</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>2.2028092319768777E-2</v>
+        <v>2.4770845596822272E-2</v>
       </c>
       <c r="D20" s="3">
         <v>95</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>2.184585922458197E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4992714934889596E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>100</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>2.2111640375064259E-2</v>
+        <v>2.4653776380874869E-2</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>2.1822915513951484E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4755141871747377E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>105</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>2.2245104619051208E-2</v>
+        <v>2.4602629413278686E-2</v>
       </c>
       <c r="D22" s="3">
         <v>105</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>2.1854383988245449E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.458962400551502E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>110</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>2.2421678298726239E-2</v>
+        <v>2.4608415296531277E-2</v>
       </c>
       <c r="D23" s="3">
         <v>110</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>2.1932844804065068E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4486335627523011E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>115</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>2.2635738444216989E-2</v>
+        <v>2.4663708006608893E-2</v>
       </c>
       <c r="D24" s="3">
         <v>115</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>2.2052168525559173E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4437159848000871E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>120</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>2.2882599247296503E-2</v>
+        <v>2.4762319190158401E-2</v>
       </c>
       <c r="D25" s="3">
         <v>120</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>2.2207247289518457E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4435332592139852E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>125</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>2.3158324629054126E-2</v>
+        <v>2.4899050630363181E-2</v>
       </c>
       <c r="D26" s="3">
         <v>125</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>2.2393790490847092E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4475172037100631E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>130</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>2.3459584061180837E-2</v>
+        <v>2.5069503836070699E-2</v>
       </c>
       <c r="D27" s="3">
         <v>130</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>2.260816761754093E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4551870486634535E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>135</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>2.3783540426968973E-2</v>
+        <v>2.5269931944447314E-2</v>
       </c>
       <c r="D28" s="3">
         <v>135</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>2.2847286011226053E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4661332495789001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>140</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>2.4127761912097659E-2</v>
+        <v>2.5497123358778486E-2</v>
       </c>
       <c r="D29" s="3">
         <v>140</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>2.3108494821867675E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4800047683176098E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>145</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>2.4490152124910975E-2</v>
+        <v>2.5748309461206841E-2</v>
       </c>
       <c r="D30" s="3">
         <v>145</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>2.338950883391859E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4964989857944184E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>150</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>2.4868894192640465E-2</v>
+        <v>2.6021090782922664E-2</v>
       </c>
       <c r="D31" s="3">
         <v>150</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>2.3688347527237853E-2</v>
+        <v>2.5153536321355162E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8240,16 +8271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8263,20 +8294,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>($G$6*(0.5*$G$8*($G$10*$H$10)^2)*($G$4/(A2))+((A2)/((0.5*$G$8*($G$10*$H$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.19971146416601782</v>
+        <v>0.26360488531309179</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" s="4">
         <f>($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D2))+(D2)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.21759723419171514</v>
+        <v>0.28801924217479297</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -8287,20 +8318,20 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B31" si="0">($G$6*(0.5*$G$8*($G$10*$H$10)^2)*($G$4/(A3))+((A3)/((0.5*$G$8*($G$10*$H$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.10067453901362231</v>
+        <v>0.13266511424415642</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="4">
         <f>($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D3))+(D3)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.1095375416106128</v>
+        <v>0.14478813084401362</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -8315,20 +8346,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>15</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>6.8026144820874213E-2</v>
+        <v>8.9401933482338228E-2</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E31" si="1">($J$6*(0.5*$J$8*($J$10*$K$10)^2)*($J$4/(D4))+(D4)/(((0.5*$J$8*($J$10*$K$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>7.384605497902548E-2</v>
+        <v>9.7390431403361441E-2</v>
       </c>
       <c r="G4" s="2">
         <v>0.81950000000000001</v>
@@ -8343,20 +8374,20 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>5.1974883368037961E-2</v>
+        <v>6.8057900297299315E-2</v>
       </c>
       <c r="D5" s="3">
         <v>20</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>5.6246619834816873E-2</v>
+        <v>7.3951084935241052E-2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -8371,48 +8402,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>4.2562475011166452E-2</v>
+        <v>5.5481526142972117E-2</v>
       </c>
       <c r="D6" s="3">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>4.588400528555979E-2</v>
+        <v>6.00950796561334E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>1.231961E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="H6" s="2">
         <v>9.5</v>
       </c>
       <c r="J6" s="2">
-        <v>1.3428004E-2</v>
+        <v>1.7781999999999999E-2</v>
       </c>
       <c r="K6" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>30</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3.6469493202277305E-2</v>
+        <v>4.7288981504000752E-2</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>3.913980103377844E-2</v>
+        <v>5.1030744971532094E-2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -8427,48 +8458,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3.2273326563663808E-2</v>
+        <v>4.1601482302375613E-2</v>
       </c>
       <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>3.4463259809126096E-2</v>
+        <v>4.4704507769505845E-2</v>
       </c>
       <c r="G8" s="2">
         <v>8.25E-4</v>
       </c>
       <c r="H8" s="2">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J8" s="2">
         <v>8.25E-4</v>
       </c>
       <c r="K8" s="2">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>40</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>2.9262669406472583E-2</v>
+        <v>3.7479636499091848E-2</v>
       </c>
       <c r="D9" s="3">
         <v>40</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.107900797642937E-2</v>
+        <v>4.0089581494089012E-2</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -8483,20 +8514,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>2.7042351903562876E-2</v>
+        <v>3.4401559628035663E-2</v>
       </c>
       <c r="D10" s="3">
         <v>45</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>2.8556282405036409E-2</v>
+        <v>3.6615529169745129E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.79</v>
@@ -8511,340 +8542,340 @@
         <v>986</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>2.5375272158650229E-2</v>
+        <v>3.2054121009538791E-2</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>2.6636625216556065E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.394008861115231E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>55</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>2.4110547146826353E-2</v>
+        <v>3.0238055665630505E-2</v>
       </c>
       <c r="D12" s="3">
         <v>55</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>2.515556321564854E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1845456609469344E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>2.314758818481906E-2</v>
+        <v>2.8820520277663662E-2</v>
       </c>
       <c r="D13" s="3">
         <v>60</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>2.4003447605420627E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.018643102546878E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>65</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>2.2416756953439903E-2</v>
+        <v>2.7709546394267159E-2</v>
       </c>
       <c r="D14" s="3">
         <v>65</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>2.3104367680330879E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8862487301223899E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>70</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>2.1868311796125712E-2</v>
+        <v>2.6839442264461638E-2</v>
       </c>
       <c r="D15" s="3">
         <v>70</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>2.2404101507849689E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7801822181072779E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>75</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>2.1465775498063493E-2</v>
+        <v>2.6162033937528899E-2</v>
       </c>
       <c r="D16" s="3">
         <v>75</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>2.1862886337455343E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6951779944196657E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>80</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>2.11817901481435E-2</v>
+        <v>2.5641190950430302E-2</v>
       </c>
       <c r="D17" s="3">
         <v>80</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>2.1450900106256564E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6272868799981485E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>85</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>2.0995434990811222E-2</v>
+        <v>2.5249284125548048E-2</v>
       </c>
       <c r="D18" s="3">
         <v>85</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>2.1145337707336478E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5734889143840024E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>2.0890438327302047E-2</v>
+        <v>2.4964824102512755E-2</v>
       </c>
       <c r="D19" s="3">
         <v>90</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>2.0928461835315316E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5314352394426663E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>95</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>2.08539540796439E-2</v>
+        <v>2.4770845596822272E-2</v>
       </c>
       <c r="D20" s="3">
         <v>95</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>2.0786269354366917E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4992714934889596E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>100</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>2.0875705385459124E-2</v>
+        <v>2.4653776380874869E-2</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>2.0707557755830379E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4755141871747377E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>105</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>2.0947372879965814E-2</v>
+        <v>2.4602629413278686E-2</v>
       </c>
       <c r="D22" s="3">
         <v>105</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>2.0683258342218284E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.458962400551502E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>110</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>2.1062149810160587E-2</v>
+        <v>2.4608415296531277E-2</v>
       </c>
       <c r="D23" s="3">
         <v>110</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>2.0705951270131851E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4486335627523011E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>115</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>2.1214413206171085E-2</v>
+        <v>2.4663708006608893E-2</v>
       </c>
       <c r="D24" s="3">
         <v>115</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>2.07695071037199E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4437159848000871E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>120</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>2.1399477259770341E-2</v>
+        <v>2.4762319190158401E-2</v>
       </c>
       <c r="D25" s="3">
         <v>120</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>2.0868817979773125E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4435332592139852E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>125</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>2.1613405892047705E-2</v>
+        <v>2.4899050630363181E-2</v>
       </c>
       <c r="D26" s="3">
         <v>125</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>2.0999593293195708E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4475172037100631E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>130</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>2.1852868574694165E-2</v>
+        <v>2.5069503836070699E-2</v>
       </c>
       <c r="D27" s="3">
         <v>130</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>2.1158202531983489E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4551870486634535E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>135</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>2.2115028191002042E-2</v>
+        <v>2.5269931944447314E-2</v>
       </c>
       <c r="D28" s="3">
         <v>135</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>2.1341553037762556E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4661332495789001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>140</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>2.239745292665047E-2</v>
+        <v>2.5497123358778486E-2</v>
       </c>
       <c r="D29" s="3">
         <v>140</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>2.1546993960498126E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4800047683176098E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>145</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>2.2698046389983535E-2</v>
+        <v>2.5748309461206841E-2</v>
       </c>
       <c r="D30" s="3">
         <v>145</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>2.1772240084642982E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4964989857944184E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>150</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>2.3014991708232759E-2</v>
+        <v>2.6021090782922664E-2</v>
       </c>
       <c r="D31" s="3">
         <v>150</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>2.2015310890056188E-2</v>
+        <v>2.5153536321355162E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
